--- a/UnitTests/Tests/Volatilities.xlsx
+++ b/UnitTests/Tests/Volatilities.xlsx
@@ -581,7 +581,7 @@
         <v>23.948673390030997</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
       <c r="E3">
@@ -597,7 +597,7 @@
         <v>46</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" ref="D4:D36" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <f t="shared" ref="D4:D36" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
       <c r="E4" t="str">
@@ -700,9 +700,9 @@
       <c r="B8" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D8" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E8" t="e">
         <f>_xll.qlBlackAtmVolCurveAtmVol(E32,H7,TRUE)</f>
@@ -752,9 +752,9 @@
       <c r="B11" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D11" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E11" t="e">
         <f>_xll.qlBlackAtmVolCurveAtmVariance(E32,H6)</f>
@@ -884,9 +884,9 @@
       <c r="B19" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="D19" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E19" t="e">
         <f>_xll.qlBlackVarianceSurface()</f>
@@ -963,7 +963,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.16276967485704383</v>
+        <v>0.16276901888733139</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -979,7 +979,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.20543416674806414</v>
+        <v>0.20553128316863267</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1011,7 +1011,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>816.38481984485099</v>
+        <v>816.38970366714</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1075,7 +1075,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>1.0562718217954301</v>
+        <v>1.0563094653822682</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1118,9 +1118,9 @@
       <c r="B33" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D33" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E33" t="e">
         <f>_xll.qlSabrVolSurface()</f>
@@ -1143,9 +1143,9 @@
       <c r="B34" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="D34" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="D34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E34" t="e">
         <f>_xll.qlVolatilitySpreads(E33)</f>
@@ -1168,9 +1168,9 @@
       <c r="B35" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="D35" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="D35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E35" t="e">
         <f>_xll.qlVolatilitySpreads2(E33)</f>
@@ -1193,9 +1193,9 @@
       <c r="B36" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="D36" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="D36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E36" t="e">
         <f>_xll.qlAtmCurve(E33)</f>

--- a/UnitTests/Tests/Volatilities.xlsx
+++ b/UnitTests/Tests/Volatilities.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\reposit\QuantLibXL\UnitTests\Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="UNIT_TEST" localSheetId="0">Sheet1!$A$3:$E$36</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -174,7 +179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,12 +237,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -279,7 +287,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,9 +320,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,6 +372,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -522,7 +564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J36"/>
   <sheetViews>
@@ -531,7 +573,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -584,9 +626,9 @@
         <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E3">
-        <f>_xll.qlSabrVolatility(1,2,3,4,0.5,6,0.7)</f>
-        <v>23.948673390030997</v>
+      <c r="E3" t="e">
+        <f ca="1">_xll.qlSabrVolatility(1,2,3,4,0.5,6,0.7)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -600,13 +642,13 @@
         <f t="shared" ref="D4:D36" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E4" t="str">
-        <f>_xll.qlVolatilityTermStructureBusinessDayConvention(E18)</f>
-        <v>Following</v>
-      </c>
-      <c r="H4" s="4">
-        <f>_xll.qlSettingsEvaluationDate()</f>
-        <v>42644</v>
+      <c r="E4" t="e">
+        <f ca="1">_xll.qlVolatilityTermStructureBusinessDayConvention(E18)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H4" s="4" t="e">
+        <f ca="1">_xll.qlSettingsEvaluationDate()</f>
+        <v>#NAME?</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -626,13 +668,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E5">
-        <f>_xll.qlVolatilityTermStructureOptionDateFromTenor(E18,"1d")</f>
-        <v>42648</v>
-      </c>
-      <c r="H5" s="4">
-        <f>H4+1</f>
-        <v>42645</v>
+      <c r="E5" t="e">
+        <f ca="1">_xll.qlVolatilityTermStructureOptionDateFromTenor(E18,"1d")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H5" s="4" t="e">
+        <f ca="1">H4+1</f>
+        <v>#NAME?</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -652,13 +694,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E6">
-        <f>_xll.qlVolatilityTermStructureMinStrike(E18)</f>
-        <v>-1.7976931348623157E+308</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" ref="H6:H8" si="1">H5+1</f>
-        <v>42646</v>
+      <c r="E6" t="e">
+        <f ca="1">_xll.qlVolatilityTermStructureMinStrike(E18)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H6" s="4" t="e">
+        <f t="shared" ref="H6:H8" ca="1" si="1">H5+1</f>
+        <v>#NAME?</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -678,13 +720,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E7">
-        <f>_xll.qlVolatilityTermStructureMaxStrike(E18)</f>
-        <v>1.7976931348623157E+308</v>
-      </c>
-      <c r="H7" s="4">
-        <f t="shared" si="1"/>
-        <v>42647</v>
+      <c r="E7" t="e">
+        <f ca="1">_xll.qlVolatilityTermStructureMaxStrike(E18)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H7" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="I7">
         <v>4</v>
@@ -705,12 +747,12 @@
         <v>ERROR</v>
       </c>
       <c r="E8" t="e">
-        <f>_xll.qlBlackAtmVolCurveAtmVol(E32,H7,TRUE)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H8" s="4">
-        <f t="shared" si="1"/>
-        <v>42648</v>
+        <f ca="1">_xll.qlBlackAtmVolCurveAtmVol(E32,H7,TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H8" s="4" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -724,9 +766,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E9">
-        <f>_xll.qlBlackAtmVolCurveAtmVol2(E32,H32)</f>
-        <v>1</v>
+      <c r="E9" t="e">
+        <f ca="1">_xll.qlBlackAtmVolCurveAtmVol2(E32,H32)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -740,9 +782,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E10">
-        <f>_xll.qlBlackAtmVolCurveAtmVol3(E32,0.01)</f>
-        <v>3.3161907871456142</v>
+      <c r="E10" t="e">
+        <f ca="1">_xll.qlBlackAtmVolCurveAtmVol3(E32,0.01)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -757,8 +799,8 @@
         <v>ERROR</v>
       </c>
       <c r="E11" t="e">
-        <f>_xll.qlBlackAtmVolCurveAtmVariance(E32,H6)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlBlackAtmVolCurveAtmVariance(E32,H6)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -772,9 +814,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E12">
-        <f>_xll.qlBlackAtmVolCurveAtmVariance2(E32,H32)</f>
-        <v>2.7777777777777779E-3</v>
+      <c r="E12" t="e">
+        <f ca="1">_xll.qlBlackAtmVolCurveAtmVariance2(E32,H32)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H12" s="4"/>
     </row>
@@ -789,9 +831,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E13">
-        <f>_xll.qlBlackAtmVolCurveAtmVariance3(E32,0.01)</f>
-        <v>0.10997121336749448</v>
+      <c r="E13" t="e">
+        <f ca="1">_xll.qlBlackAtmVolCurveAtmVariance3(E32,0.01)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -805,9 +847,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E14">
-        <f>_xll.qlBlackVolTermStructureBlackVol(E18,H8,1)</f>
-        <v>1</v>
+      <c r="E14" t="e">
+        <f ca="1">_xll.qlBlackVolTermStructureBlackVol(E18,H8,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -821,9 +863,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E15">
-        <f>_xll.qlBlackVolTermStructureBlackVariance(E18,H8,1)</f>
-        <v>2.7777777777777779E-3</v>
+      <c r="E15" t="e">
+        <f ca="1">_xll.qlBlackVolTermStructureBlackVariance(E18,H8,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -837,9 +879,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E16">
-        <f>_xll.qlBlackVolTermStructureBlackForwardVol(E18,H8,H8,1)</f>
-        <v>1.0000000000000011</v>
+      <c r="E16" t="e">
+        <f ca="1">_xll.qlBlackVolTermStructureBlackForwardVol(E18,H8,H8,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -854,9 +896,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E17">
-        <f>_xll.qlBlackVolTermStructureBlackForwardVariance(E18,H8,H8,1)</f>
-        <v>0</v>
+      <c r="E17" t="e">
+        <f ca="1">_xll.qlBlackVolTermStructureBlackForwardVariance(E18,H8,H8,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H17" s="4"/>
     </row>
@@ -871,9 +913,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E18" t="str">
-        <f>_xll.qlBlackConstantVol("vol01",H7,"target",1,"actual/360")</f>
-        <v>vol01#0000</v>
+      <c r="E18" t="e">
+        <f ca="1">_xll.qlBlackConstantVol("vol01",H7,"target",1,"actual/360")</f>
+        <v>#NAME?</v>
       </c>
       <c r="H18" s="4"/>
     </row>
@@ -889,8 +931,8 @@
         <v>ERROR</v>
       </c>
       <c r="E19" t="e">
-        <f>_xll.qlBlackVarianceSurface()</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlBlackVarianceSurface()</f>
+        <v>#NAME?</v>
       </c>
       <c r="H19" s="4"/>
     </row>
@@ -905,9 +947,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E20" t="str">
-        <f>_xll.qlAbcdAtmVolCurveOptionTenors(E32)</f>
-        <v>1D</v>
+      <c r="E20" t="e">
+        <f ca="1">_xll.qlAbcdAtmVolCurveOptionTenors(E32)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -921,9 +963,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E21" t="str">
-        <f>_xll.qlAbcdAtmVolCurveOptionTenorsInInterpolation(E32)</f>
-        <v>1D</v>
+      <c r="E21" t="e">
+        <f ca="1">_xll.qlAbcdAtmVolCurveOptionTenorsInInterpolation(E32)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -937,9 +979,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E22">
-        <f>_xll.qlAbcdAtmVolCurveOptionDates(E32)</f>
-        <v>42648</v>
+      <c r="E22" t="e">
+        <f ca="1">_xll.qlAbcdAtmVolCurveOptionDates(E32)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -953,9 +995,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E23">
-        <f>_xll.qlAbcdAtmVolCurveOptionTimes(E32)</f>
-        <v>2.7777777777777779E-3</v>
+      <c r="E23" t="e">
+        <f ca="1">_xll.qlAbcdAtmVolCurveOptionTimes(E32)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -969,9 +1011,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E24">
-        <f>_xll.qlAbcdAtmVolCurveRmsError(E32)</f>
-        <v>0.16276901888733139</v>
+      <c r="E24" t="e">
+        <f ca="1">_xll.qlAbcdAtmVolCurveRmsError(E32)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -985,9 +1027,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E25">
-        <f>_xll.qlAbcdAtmVolCurveMaxError(E32)</f>
-        <v>0.20553128316863267</v>
+      <c r="E25" t="e">
+        <f ca="1">_xll.qlAbcdAtmVolCurveMaxError(E32)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1001,9 +1043,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E26">
-        <f>_xll.qlAbcdAtmVolCurveA(E32)</f>
-        <v>-5.6930143586703347E-4</v>
+      <c r="E26" t="e">
+        <f ca="1">_xll.qlAbcdAtmVolCurveA(E32)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1017,9 +1059,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E27">
-        <f>_xll.qlAbcdAtmVolCurveB(E32)</f>
-        <v>816.38970366714</v>
+      <c r="E27" t="e">
+        <f ca="1">_xll.qlAbcdAtmVolCurveB(E32)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1033,9 +1075,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E28">
-        <f>_xll.qlAbcdAtmVolCurveC(E32)</f>
-        <v>55.846414299893993</v>
+      <c r="E28" t="e">
+        <f ca="1">_xll.qlAbcdAtmVolCurveC(E32)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1049,9 +1091,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E29">
-        <f>_xll.qlAbcdAtmVolCurveD(E32)</f>
-        <v>5.6930143586703347E-4</v>
+      <c r="E29" t="e">
+        <f ca="1">_xll.qlAbcdAtmVolCurveD(E32)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1065,9 +1107,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E30">
-        <f>_xll.qlAbcdAtmVolCurveKatOptionTenors(E32)</f>
-        <v>0.85719125008922603</v>
+      <c r="E30" t="e">
+        <f ca="1">_xll.qlAbcdAtmVolCurveKatOptionTenors(E32)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1081,9 +1123,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E31">
-        <f>_xll.qlAbcdAtmVolCurveK(E32,0.01)</f>
-        <v>1.0563094653822682</v>
+      <c r="E31" t="e">
+        <f ca="1">_xll.qlAbcdAtmVolCurveK(E32,0.01)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1097,9 +1139,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E32" t="str">
-        <f>_xll.qlAbcdAtmVolCurve("vol02",2,"target",H32:H35,I32:I35,J32:J35,"following","actual/360")</f>
-        <v>vol02#0000</v>
+      <c r="E32" t="e">
+        <f ca="1">_xll.qlAbcdAtmVolCurve("vol02",2,"target",H32:H35,I32:I35,J32:J35,"following","actual/360")</f>
+        <v>#NAME?</v>
       </c>
       <c r="H32" t="s">
         <v>42</v>
@@ -1123,8 +1165,8 @@
         <v>ERROR</v>
       </c>
       <c r="E33" t="e">
-        <f>_xll.qlSabrVolSurface()</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlSabrVolSurface()</f>
+        <v>#NAME?</v>
       </c>
       <c r="H33" t="s">
         <v>43</v>
@@ -1148,8 +1190,8 @@
         <v>ERROR</v>
       </c>
       <c r="E34" t="e">
-        <f>_xll.qlVolatilitySpreads(E33)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlVolatilitySpreads(E33)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H34" t="s">
         <v>44</v>
@@ -1173,8 +1215,8 @@
         <v>ERROR</v>
       </c>
       <c r="E35" t="e">
-        <f>_xll.qlVolatilitySpreads2(E33)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlVolatilitySpreads2(E33)</f>
+        <v>#NAME?</v>
       </c>
       <c r="H35" t="s">
         <v>45</v>
@@ -1198,8 +1240,8 @@
         <v>ERROR</v>
       </c>
       <c r="E36" t="e">
-        <f>_xll.qlAtmCurve(E33)</f>
-        <v>#VALUE!</v>
+        <f ca="1">_xll.qlAtmCurve(E33)</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -1209,26 +1251,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
